--- a/Embedded/webapps/dzf_channel/exceltemplet/mathistroryimp.xlsx
+++ b/Embedded/webapps/dzf_channel/exceltemplet/mathistroryimp.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20730" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:R2"/>
 </workbook>
 </file>
 
@@ -43,7 +44,7 @@
     <t>文件</t>
   </si>
   <si>
-    <t>授权书</t>
+    <t>授权书/牌</t>
   </si>
   <si>
     <t>快递公司</t>
@@ -127,29 +128,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,22 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,25 +218,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,45 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -264,7 +249,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,133 +298,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,37 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,15 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -514,26 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,8 +528,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +558,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -591,6 +581,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -599,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,140 +612,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,6 +757,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,7 +1109,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1167,7 +1171,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1187,18 +1191,12 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1208,7 +1206,7 @@
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="2">
